--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2081216.148807912</v>
+        <v>-2083799.18087764</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>96.42217904608307</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>185.2156806511725</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>96.05086107825326</v>
+        <v>94.57983363107938</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>203.5986091553834</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>179.4384780426455</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>41.20879771812091</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>88.1127649213378</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>317.3810635611275</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>126.6073235899938</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>49.00543757249631</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>5.532837709832558</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444165</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.3739644559493</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -1579,19 +1579,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>70.81964134445093</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634823</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>58.24570521548647</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670957</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.02467705292104</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>57.2434790469644</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>91.89996056624719</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892442</v>
+        <v>228.955370467302</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>25.524713856125</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149754</v>
+        <v>171.038513614976</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316659</v>
+        <v>158.4533545316665</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512504</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796072</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559693</v>
+        <v>44.76793778821994</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253069</v>
+        <v>156.7306717253075</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.5012462792625</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160357</v>
+        <v>72.47236975160421</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014316034</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346827</v>
+        <v>172.2328194346833</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603263</v>
+        <v>208.611983760327</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222822</v>
+        <v>277.3910078222828</v>
       </c>
       <c r="V28" t="n">
-        <v>63.10505698069415</v>
+        <v>243.3441767568667</v>
       </c>
       <c r="W28" t="n">
-        <v>277.729531769629</v>
+        <v>277.7295317696297</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220752</v>
+        <v>216.9161888220758</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851329</v>
+        <v>209.7911867851335</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308924</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4147,7 +4147,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140706</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.236214140706</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>936.9705155339557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>551.1822629357116</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>551.1822629357116</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4413,10 +4413,10 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4428,7 +4428,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
@@ -4437,16 +4437,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.6498276407347</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4489,49 +4489,49 @@
         <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596445</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757127</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757127</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757127</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757127</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757127</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="W4" t="n">
-        <v>541.639378538752</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="X4" t="n">
-        <v>313.6498276407347</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="Y4" t="n">
-        <v>313.6498276407347</v>
+        <v>920.8870058181847</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1555.338782035317</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2660.442436504216</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997114</v>
+        <v>2307.673781234102</v>
       </c>
       <c r="X5" t="n">
-        <v>2332.07795407525</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.938622099438</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.5794812262959</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C7" t="n">
-        <v>355.5794812262959</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>205.4628418139602</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>205.4628418139602</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.8842129683488</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>610.1175975378749</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>610.1175975378749</v>
       </c>
       <c r="V7" t="n">
-        <v>576.372060369826</v>
+        <v>610.1175975378749</v>
       </c>
       <c r="W7" t="n">
-        <v>576.372060369826</v>
+        <v>610.1175975378749</v>
       </c>
       <c r="X7" t="n">
-        <v>576.372060369826</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="Y7" t="n">
-        <v>355.5794812262959</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.429619686766</v>
+        <v>2212.771568013854</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.467102746355</v>
+        <v>1843.809051073442</v>
       </c>
       <c r="D8" t="n">
-        <v>1044.201404139604</v>
+        <v>1485.543352466692</v>
       </c>
       <c r="E8" t="n">
-        <v>658.4131515413599</v>
+        <v>1099.755099868448</v>
       </c>
       <c r="F8" t="n">
-        <v>651.4676507921564</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>236.3952006371529</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4832,22 +4832,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>1771.429619686766</v>
+        <v>2599.371408077976</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.773976541745</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>163.837793613838</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>163.837793613838</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
         <v>163.837793613838</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>781.5561065832924</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>781.5561065832924</v>
+        <v>915.2982808587581</v>
       </c>
       <c r="U10" t="n">
-        <v>781.5561065832924</v>
+        <v>915.2982808587581</v>
       </c>
       <c r="V10" t="n">
-        <v>781.5561065832924</v>
+        <v>915.2982808587581</v>
       </c>
       <c r="W10" t="n">
-        <v>781.5561065832924</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="X10" t="n">
-        <v>553.566555685275</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="Y10" t="n">
-        <v>332.773976541745</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362714</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5048,43 +5048,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>1055.185257670615</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>886.2490747427084</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>736.1324353303727</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>588.2193417479796</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2192.573257978144</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1903.498031322342</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1648.813543116455</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.396373079494</v>
+        <v>1685.615852542403</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1236.833722500855</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>2565.513299557012</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>2565.513299557012</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>3087.702309109633</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>3715.300272664239</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O15" t="n">
-        <v>4267.210002903526</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703112</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424044</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300687</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300687</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>376.4492432300687</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138413</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703112</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,46 +5519,46 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836006</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556937</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860765</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036834</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138403</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138403</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>186.6449060441811</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,10 +5908,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,52 +5987,52 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171299</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892229</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768871</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E25" t="n">
-        <v>266.489149794494</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F25" t="n">
-        <v>119.599202296583</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473696</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,28 +6224,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.6615923362581</v>
+        <v>663.4384611045989</v>
       </c>
       <c r="C28" t="n">
-        <v>743.6076988699289</v>
+        <v>503.3845676382691</v>
       </c>
       <c r="D28" t="n">
-        <v>602.3733489191709</v>
+        <v>503.3845676382691</v>
       </c>
       <c r="E28" t="n">
-        <v>463.3425447983554</v>
+        <v>503.3845676382691</v>
       </c>
       <c r="F28" t="n">
-        <v>325.3348867620228</v>
+        <v>458.1644284582489</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0210769384805</v>
+        <v>299.8506186347059</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384805</v>
+        <v>167.0210769384812</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795881</v>
+        <v>182.7582133795873</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064193</v>
+        <v>453.1530078064177</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836518</v>
+        <v>852.2571338836497</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515979</v>
+        <v>1282.972368515976</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077279</v>
+        <v>1709.087772077276</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687557</v>
+        <v>2087.322584687553</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162408</v>
+        <v>2388.703572162403</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790599</v>
+        <v>2516.607338790594</v>
       </c>
       <c r="R28" t="n">
-        <v>2516.607338790599</v>
+        <v>2458.443924504574</v>
       </c>
       <c r="S28" t="n">
-        <v>2342.634793907082</v>
+        <v>2284.471379621055</v>
       </c>
       <c r="T28" t="n">
-        <v>2131.9156183916</v>
+        <v>2073.752204105574</v>
       </c>
       <c r="U28" t="n">
-        <v>1851.722681197376</v>
+        <v>1793.559266911348</v>
       </c>
       <c r="V28" t="n">
-        <v>1787.980199398695</v>
+        <v>1547.757068167038</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.445318823312</v>
+        <v>1267.222187591655</v>
       </c>
       <c r="X28" t="n">
-        <v>1288.338057386873</v>
+        <v>1048.114926155214</v>
       </c>
       <c r="Y28" t="n">
-        <v>1076.42776770492</v>
+        <v>836.2046364732615</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979287</v>
@@ -6655,13 +6655,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942665</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380725</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,19 +6871,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,16 +6892,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,13 +7090,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7333,37 +7333,37 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380727</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656816</v>
@@ -7798,19 +7798,19 @@
         <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>258.2608625745999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>225.7060450022809</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292596</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,22 +22705,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>71.19596002037457</v>
+        <v>72.66698746754845</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -22765,10 +22765,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-2.778757681798695e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.04708356698193</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.5858089828373</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>107.2784330767824</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>57.22910392194147</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>113.5907959652913</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>123.7828069546802</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>73.62417772602194</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>139.9994244361439</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.822006451251</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796079</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>91.85964366774999</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792619</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315971</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>180.2391197761719</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1347040.488613818</v>
+        <v>1347040.488613819</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1347040.488613819</v>
+        <v>1347040.488613818</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1355342.362411912</v>
+        <v>1355342.362411911</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>65808.19547374986</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="E2" t="n">
+        <v>80714.65996900066</v>
+      </c>
+      <c r="F2" t="n">
         <v>80714.65996900061</v>
       </c>
-      <c r="F2" t="n">
-        <v>80714.65996900058</v>
-      </c>
       <c r="G2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="J2" t="n">
-        <v>81217.80383555168</v>
+        <v>81217.80383555166</v>
       </c>
       <c r="K2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="M2" t="n">
         <v>82104.17698642836</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>82104.17698642839</v>
       </c>
-      <c r="M2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642834</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.975650847</v>
+        <v>224565.9756508465</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006222</v>
+        <v>12392.94474006276</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.027935512</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569589</v>
+        <v>7034.773253569054</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006219</v>
+        <v>12392.9447400626</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.5839718919</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189188</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>18940.07269946537</v>
+        <v>18940.07269946517</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498548</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498548</v>
       </c>
       <c r="M4" t="n">
+        <v>24037.44323498545</v>
+      </c>
+      <c r="N4" t="n">
         <v>24037.44323498543</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24037.44323498544</v>
       </c>
       <c r="O4" t="n">
         <v>24037.44323498544</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498544</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1371455.137804242</v>
+        <v>-1371862.537342059</v>
       </c>
       <c r="C6" t="n">
         <v>-119426.5076790175</v>
@@ -26528,40 +26528,40 @@
         <v>-119426.5076790175</v>
       </c>
       <c r="E6" t="n">
-        <v>-361866.9156341541</v>
+        <v>-361901.6535595899</v>
       </c>
       <c r="F6" t="n">
-        <v>-36454.45382679848</v>
+        <v>-36489.19175223414</v>
       </c>
       <c r="G6" t="n">
-        <v>-36454.45382679842</v>
+        <v>-36489.19175223411</v>
       </c>
       <c r="H6" t="n">
-        <v>-36454.45382679845</v>
+        <v>-36489.19175223402</v>
       </c>
       <c r="I6" t="n">
-        <v>-36454.45382679845</v>
+        <v>-36489.19175223418</v>
       </c>
       <c r="J6" t="n">
-        <v>-264150.0322794858</v>
+        <v>-264172.191608257</v>
       </c>
       <c r="K6" t="n">
-        <v>-57490.3268425347</v>
+        <v>-57490.32684253534</v>
       </c>
       <c r="L6" t="n">
-        <v>-45097.38210247247</v>
+        <v>-45097.38210247257</v>
       </c>
       <c r="M6" t="n">
-        <v>-130152.4100379843</v>
+        <v>-130152.4100379845</v>
       </c>
       <c r="N6" t="n">
-        <v>-45097.3821024725</v>
+        <v>-45097.38210247244</v>
       </c>
       <c r="O6" t="n">
-        <v>-52132.15535604204</v>
+        <v>-52132.1553560415</v>
       </c>
       <c r="P6" t="n">
-        <v>-57490.32684253463</v>
+        <v>-57490.32684253506</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961946</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507777</v>
+        <v>15.49118092507845</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961985</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507774</v>
+        <v>15.49118092507845</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961946</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507777</v>
+        <v>15.49118092507845</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>124.1536493147515</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>190.2926226358235</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>104.2122503048103</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>101.6562604101041</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>89.49498218058392</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>168.0004407973266</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>140.7635877589456</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>214.0161115663366</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961948</v>
+        <v>8.793466566961317</v>
       </c>
     </row>
     <row r="29">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31841,25 +31841,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5665344352321</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>510.867923325071</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,22 +32078,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>669.5976799347659</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>338.6542681503472</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32470,7 +32470,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817577</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>705.9257335045844</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817577</v>
@@ -32792,22 +32792,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>281.0363767960748</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817577</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -33020,34 +33020,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,19 +33263,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>744.5154887882966</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>632.587927456874</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>314.5984986256099</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>351.608251103502</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>504.2882996232035</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132138</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>379.5262112417378</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>527.4636460127475</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>196.0580237059027</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>574.5840214212511</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>138.9023428740565</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36522,13 +36522,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991537</v>
+        <v>89.83994982991473</v>
       </c>
       <c r="K28" t="n">
-        <v>273.126054976597</v>
+        <v>273.1260549765963</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860935</v>
+        <v>403.1354808860929</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680071</v>
+        <v>435.0658935680065</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568694</v>
+        <v>430.4195995568688</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730075</v>
+        <v>382.0553662730068</v>
       </c>
       <c r="P28" t="n">
-        <v>304.425239873587</v>
+        <v>304.4252398735863</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668603</v>
+        <v>129.1957238668597</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>602.3814548662782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>490.4538935348556</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>180.6240912112796</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>217.6338436891718</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>370.3138922088733</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
